--- a/03.Portfolios/tickers.xlsx
+++ b/03.Portfolios/tickers.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,113 +644,113 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>small_value</t>
+          <t>mega_value//large_value</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>industry group=Energy</t>
+          <t>industry group=Semiconductors &amp; Semiconductor Equip</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>46</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>30%</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>82</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>68%</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>76%</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -759,103 +759,103 @@
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>industry=Oil, Gas &amp; Consumable Fuels</t>
+          <t>industry=Semiconductors &amp; Semiconductor Equip</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>77%</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -864,124 +864,124 @@
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>sector=Energy</t>
+          <t>sector=Information Technology</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>142</v>
+        <v>405</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>81%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>small_growth</t>
+          <t>large_value//mid_value</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry group=Consumer Discretionary Distribution </t>
+          <t>industry group=Capital Goods</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -990,90 +990,90 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>97%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -1082,103 +1082,103 @@
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>industry=Specialty Retail</t>
+          <t>industry=Machinery</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>66</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>36%</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>56</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>88%</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -1187,216 +1187,216 @@
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>sector=Consumer Discretionary</t>
+          <t>sector=Industrials</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>373</v>
+        <v>477</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>mega_value//large_value</t>
+          <t>mega_growth//large_growth</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>industry group=Technology Hardware &amp; Equipment</t>
+          <t>industry group=Software &amp; Services</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>141</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>95%</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>96%</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>95%</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>64%</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>63</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>45%</t>
         </is>
       </c>
     </row>
@@ -1405,103 +1405,103 @@
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>industry=Technology Hardware, Storage &amp; Perip</t>
+          <t>industry=Software</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>118</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>96%</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>96%</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>91%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>91%</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>57%</t>
         </is>
       </c>
-      <c r="N11" t="n">
-        <v>12</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>83%</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>45%</t>
         </is>
       </c>
     </row>
@@ -1514,212 +1514,212 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>250</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>94%</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>95%</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>41%</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>248</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>91%</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>34%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>mega_value//large_value</t>
+          <t>small_growth</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>industry group=Financial Services</t>
+          <t xml:space="preserve">industry group=Consumer Discretionary Distribution </t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>93%</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>68</v>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>79%</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>73%</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>122</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>97%</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>15%</t>
         </is>
       </c>
     </row>
@@ -1728,103 +1728,103 @@
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>industry=Capital Markets</t>
+          <t>industry=Specialty Retail</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>56</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>96%</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>84%</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>51%</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>60</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>35%</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>95%</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>83%</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>18%</t>
         </is>
       </c>
     </row>
@@ -1833,216 +1833,216 @@
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>sector=Financials</t>
+          <t>sector=Consumer Discretionary</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>563</v>
+        <v>373</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>97%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>94%</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>37%</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>81%</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>82%</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>54%</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>15%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>KSS</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>mega_value//large_value</t>
+          <t>small_value</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>industry group=Semiconductors &amp; Semiconductor Equip</t>
+          <t xml:space="preserve">industry group=Consumer Discretionary Distribution </t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>25%</t>
         </is>
       </c>
     </row>
@@ -2051,103 +2051,103 @@
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>industry=Semiconductors &amp; Semiconductor Equip</t>
+          <t>industry=Broadline Retail</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
           <t>11%</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>46</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>91%</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>15%</t>
         </is>
       </c>
     </row>
@@ -2156,216 +2156,216 @@
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>sector=Information Technology</t>
+          <t>sector=Consumer Discretionary</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>228</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>67%</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>88%</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>29%</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>248</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>93%</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>66%</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>26%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>large_growth//mid_growth</t>
+          <t>mega_growth//large_growth</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>industry group=Media &amp; Entertainment</t>
+          <t>industry group=Pharmaceuticals, Biotechnology &amp; Lif</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>123</v>
+        <v>445</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>99%</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>89%</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>125</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>94%</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>78</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>87%</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>12%</t>
         </is>
       </c>
     </row>
@@ -2374,83 +2374,83 @@
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>industry=Interactive Media &amp; Services</t>
+          <t>industry=Pharmaceuticals</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>94%</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>18%</t>
-        </is>
-      </c>
       <c r="N20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2460,17 +2460,17 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>92%</t>
         </is>
       </c>
     </row>
@@ -2479,122 +2479,1097 @@
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>sector=Communication Services</t>
+          <t>sector=Health Care</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>144</v>
+        <v>656</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>241</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>mega_growth//large_growth</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>industry group=Semiconductors &amp; Semiconductor Equip</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>46</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>91%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>industry=Semiconductors &amp; Semiconductor Equip</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>70</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>99%</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>46</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>sector=Information Technology</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>405</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>250</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>SNX</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>small_value</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>industry group=Technology Hardware &amp; Equipment</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>124</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>31%</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>63</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>59%</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>90</v>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry=Electronic Equipment, Instruments &amp; </t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>71</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>38</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>sector=Information Technology</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>405</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>250</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>VST</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>large_value//mid_value//small_growth</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>industry group=Utilities</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>72</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>86%</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>76%</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>10%</t>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>57</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>industry=Independent Power and Renewable Elec</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>sector=Utilities</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>72</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>57</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>58%</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A7:A9"/>
+  <mergeCells count="20">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="D1:M1"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
